--- a/Manuscript/Supp/Arabidopsis_summaryInfo.xlsx
+++ b/Manuscript/Supp/Arabidopsis_summaryInfo.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bin/Dropbox/Zhuo/Research/Project2014/StablyExpressedGenes/Manuscript/Supp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="All" sheetId="3" r:id="rId3"/>
-    <sheet name="leaf" sheetId="4" r:id="rId4"/>
-    <sheet name="seedling" sheetId="5" r:id="rId5"/>
-    <sheet name="tissue" sheetId="6" r:id="rId6"/>
+    <sheet name="MakeTable" sheetId="7" r:id="rId4"/>
+    <sheet name="leaf" sheetId="4" r:id="rId5"/>
+    <sheet name="seedling" sheetId="5" r:id="rId6"/>
+    <sheet name="tissue" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">tissue!$A$2:$A$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">tissue!$A$2:$A$9</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="371">
   <si>
     <t xml:space="preserve">Tissue cluster </t>
   </si>
@@ -1258,6 +1267,90 @@
   </si>
   <si>
     <t>Actual Sample Size</t>
+  </si>
+  <si>
+    <t>GEO Number</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>it contains 48 samples</t>
+  </si>
+  <si>
+    <t>8 samples</t>
+  </si>
+  <si>
+    <t>42 samples</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>\cite{wollmann2012dynamic}</t>
+  </si>
+  <si>
+    <t>\cite{maekawa2012conservation}</t>
+  </si>
+  <si>
+    <t>\cite{stroud2014non}</t>
+  </si>
+  <si>
+    <t>\cite{moissiard2014transcriptional}</t>
+  </si>
+  <si>
+    <t>\cite{liu2014different}</t>
+  </si>
+  <si>
+    <t>\cite{zhiponova2014helix}</t>
+  </si>
+  <si>
+    <t>\cite{zhu2013swi}</t>
+  </si>
+  <si>
+    <t>\cite{bai2012triple}</t>
+  </si>
+  <si>
+    <t>\cite{liu2013translational}</t>
+  </si>
+  <si>
+    <t>\cite{rugnone2013lnk}</t>
+  </si>
+  <si>
+    <t>\cite{oh2014cell}</t>
+  </si>
+  <si>
+    <t>\cite{fan2014bhlh}</t>
+  </si>
+  <si>
+    <t>\cite{dong2014arabidopsis}</t>
+  </si>
+  <si>
+    <t>\cite{niederhuth2013transcriptional}</t>
+  </si>
+  <si>
+    <t>\cite{chaiwanon2015spatiotemporal}</t>
+  </si>
+  <si>
+    <t>\cite{pallakies2014cle40}</t>
+  </si>
+  <si>
+    <t>\cite{mizzotti2014seedstick}</t>
+  </si>
+  <si>
+    <t>\cite{groth2014snf2}</t>
+  </si>
+  <si>
+    <t>\cite{liu2015repair}</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,7 +1535,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1445,6 +1544,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1539,6 +1639,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1864,17 +1969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="18" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
       <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
@@ -1886,7 +1990,7 @@
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1924,7 +2028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" hidden="1">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>194</v>
       </c>
@@ -1953,7 +2057,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" hidden="1">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -1982,7 +2086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2017,7 +2121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" hidden="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>268</v>
       </c>
@@ -2046,7 +2150,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>150</v>
       </c>
@@ -2081,7 +2185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>154</v>
       </c>
@@ -2116,7 +2220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" hidden="1">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>272</v>
       </c>
@@ -2148,7 +2252,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" hidden="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>238</v>
       </c>
@@ -2183,7 +2287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" hidden="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>199</v>
       </c>
@@ -2215,7 +2319,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" hidden="1">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>242</v>
       </c>
@@ -2250,7 +2354,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" hidden="1">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>248</v>
       </c>
@@ -2285,7 +2389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" hidden="1">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>251</v>
       </c>
@@ -2320,7 +2424,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" hidden="1">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>299</v>
       </c>
@@ -2346,7 +2450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -2354,7 +2458,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" hidden="1">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>277</v>
       </c>
@@ -2382,7 +2486,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="16" hidden="1">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>280</v>
       </c>
@@ -2415,7 +2519,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2450,7 +2554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" hidden="1">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>301</v>
       </c>
@@ -2461,7 +2565,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>302</v>
       </c>
@@ -2478,7 +2582,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" hidden="1">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>303</v>
       </c>
@@ -2507,7 +2611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" hidden="1">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>283</v>
       </c>
@@ -2536,7 +2640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" hidden="1">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>256</v>
       </c>
@@ -2571,7 +2675,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -2606,7 +2710,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" hidden="1">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>286</v>
       </c>
@@ -2638,7 +2742,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" hidden="1">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>304</v>
       </c>
@@ -2667,7 +2771,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>158</v>
       </c>
@@ -2702,7 +2806,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" hidden="1">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -2725,7 +2829,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>137</v>
       </c>
@@ -2763,7 +2867,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" hidden="1">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>290</v>
       </c>
@@ -2790,7 +2894,7 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="16" hidden="1">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>209</v>
       </c>
@@ -2822,7 +2926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16" hidden="1">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>292</v>
       </c>
@@ -2851,7 +2955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>139</v>
       </c>
@@ -2886,7 +2990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>143</v>
       </c>
@@ -2921,7 +3025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" hidden="1">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -2935,7 +3039,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" hidden="1">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>220</v>
       </c>
@@ -2964,7 +3068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>145</v>
       </c>
@@ -2999,7 +3103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" hidden="1">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>223</v>
       </c>
@@ -3016,7 +3120,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" hidden="1">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -3033,7 +3137,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" hidden="1">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>305</v>
       </c>
@@ -3042,7 +3146,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -3074,7 +3178,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" hidden="1">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>295</v>
       </c>
@@ -3106,7 +3210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" hidden="1">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -3120,13 +3224,13 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" hidden="1">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>307</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>19</v>
       </c>
@@ -3161,7 +3265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>169</v>
       </c>
@@ -3196,12 +3300,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>20</v>
       </c>
@@ -3233,7 +3337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>181</v>
       </c>
@@ -3265,7 +3369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>310</v>
       </c>
@@ -3273,7 +3377,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
@@ -3311,7 +3415,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>148</v>
       </c>
@@ -3343,7 +3447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>22</v>
       </c>
@@ -3378,7 +3482,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>23</v>
       </c>
@@ -3413,7 +3517,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -3445,7 +3549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
@@ -3477,7 +3581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>26</v>
       </c>
@@ -3509,7 +3613,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>27</v>
       </c>
@@ -3544,7 +3648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>28</v>
       </c>
@@ -3576,7 +3680,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>29</v>
       </c>
@@ -3611,7 +3715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>312</v>
       </c>
@@ -3625,7 +3729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>30</v>
       </c>
@@ -3657,7 +3761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>31</v>
       </c>
@@ -3692,7 +3796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="16" hidden="1">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>313</v>
       </c>
@@ -3721,7 +3825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>32</v>
       </c>
@@ -3753,7 +3857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -3785,7 +3889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>34</v>
       </c>
@@ -3817,7 +3921,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="16" hidden="1">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -3837,7 +3941,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>35</v>
       </c>
@@ -3872,7 +3976,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>36</v>
       </c>
@@ -3907,7 +4011,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>37</v>
       </c>
@@ -3939,7 +4043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="16" hidden="1">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>235</v>
       </c>
@@ -3962,7 +4066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="16" hidden="1">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>231</v>
       </c>
@@ -3989,13 +4093,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L73">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="seed"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L73"/>
   <sortState ref="A2:L59">
     <sortCondition ref="A1"/>
   </sortState>
@@ -4004,30 +4102,24 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +4160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -4110,7 +4202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>268</v>
       </c>
@@ -4139,7 +4231,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
@@ -4181,7 +4273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>154</v>
       </c>
@@ -4223,7 +4315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>272</v>
       </c>
@@ -4262,7 +4354,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>238</v>
       </c>
@@ -4304,7 +4396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>242</v>
       </c>
@@ -4346,7 +4438,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>248</v>
       </c>
@@ -4381,7 +4473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>251</v>
       </c>
@@ -4416,7 +4508,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>299</v>
       </c>
@@ -4449,7 +4541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>277</v>
       </c>
@@ -4475,7 +4567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -4517,7 +4609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>283</v>
       </c>
@@ -4553,7 +4645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>256</v>
       </c>
@@ -4595,7 +4687,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -4630,7 +4722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>286</v>
       </c>
@@ -4662,7 +4754,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>304</v>
       </c>
@@ -4691,7 +4783,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -4733,7 +4825,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -4771,7 +4863,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>290</v>
       </c>
@@ -4797,7 +4889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>209</v>
       </c>
@@ -4829,7 +4921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>292</v>
       </c>
@@ -4865,7 +4957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>139</v>
       </c>
@@ -4907,7 +4999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>143</v>
       </c>
@@ -4949,7 +5041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>220</v>
       </c>
@@ -4988,7 +5080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>145</v>
       </c>
@@ -5030,7 +5122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>295</v>
       </c>
@@ -5069,7 +5161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -5104,7 +5196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>169</v>
       </c>
@@ -5146,7 +5238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -5178,7 +5270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>181</v>
       </c>
@@ -5210,7 +5302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -5248,7 +5340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>148</v>
       </c>
@@ -5280,7 +5372,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -5315,7 +5407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>23</v>
       </c>
@@ -5350,7 +5442,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -5382,7 +5474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -5414,7 +5506,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -5453,7 +5545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>27</v>
       </c>
@@ -5495,7 +5587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -5537,7 +5629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>312</v>
       </c>
@@ -5551,7 +5643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -5583,7 +5675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
@@ -5625,7 +5717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>32</v>
       </c>
@@ -5664,7 +5756,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>33</v>
       </c>
@@ -5696,7 +5788,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -5728,7 +5820,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
@@ -5763,7 +5855,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
@@ -5798,7 +5890,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>37</v>
       </c>
@@ -5831,46 +5923,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A50">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="GSE32202"/>
-        <filter val="GSE35288"/>
-        <filter val="GSE35408"/>
-        <filter val="GSE36626"/>
-        <filter val="GSE37159"/>
-        <filter val="GSE38400"/>
-        <filter val="GSE39463"/>
-        <filter val="GSE41766"/>
-        <filter val="GSE43703"/>
-        <filter val="GSE43865"/>
-        <filter val="GSE48235"/>
-        <filter val="GSE51119"/>
-        <filter val="GSE51304"/>
-        <filter val="GSE51772"/>
-        <filter val="GSE52966"/>
-        <filter val="GSE53078"/>
-        <filter val="GSE54677"/>
-        <filter val="GSE56326"/>
-        <filter val="GSE59167"/>
-        <filter val="GSE59637"/>
-        <filter val="GSE60183"/>
-        <filter val="GSE60835"/>
-        <filter val="GSE62799"/>
-        <filter val="GSE63355"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A50"/>
   <hyperlinks>
     <hyperlink ref="N48" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5882,14 +5940,14 @@
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5933,7 +5991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -5971,7 +6029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>139</v>
       </c>
@@ -6012,7 +6070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -6053,7 +6111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>238</v>
       </c>
@@ -6094,7 +6152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>242</v>
       </c>
@@ -6135,7 +6193,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -6176,7 +6234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>283</v>
       </c>
@@ -6211,7 +6269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>256</v>
       </c>
@@ -6252,7 +6310,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>143</v>
       </c>
@@ -6293,7 +6351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>145</v>
       </c>
@@ -6334,7 +6392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -6375,7 +6433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -6413,7 +6471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>220</v>
       </c>
@@ -6451,7 +6509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>272</v>
       </c>
@@ -6489,7 +6547,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>299</v>
       </c>
@@ -6521,7 +6579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>292</v>
       </c>
@@ -6556,7 +6614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>295</v>
       </c>
@@ -6594,7 +6652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
@@ -6635,7 +6693,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -6676,7 +6734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>154</v>
       </c>
@@ -6717,7 +6775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>150</v>
       </c>
@@ -6758,7 +6816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>169</v>
       </c>
@@ -6799,7 +6857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -6846,274 +6904,386 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3">
-        <v>48</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="E3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
       </c>
       <c r="D4">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>293</v>
-      </c>
-      <c r="I4" t="s">
-        <v>294</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H5" t="s">
-        <v>296</v>
-      </c>
-      <c r="I5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>297</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>162</v>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7157,100 +7327,88 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7258,75 +7416,66 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>239</v>
-      </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="M4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
         <v>243</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -7338,256 +7487,516 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I7" t="s">
-        <v>285</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="M8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11">
-        <v>36</v>
+      <c r="M6" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7631,7 +8040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>150</v>
       </c>
@@ -7672,7 +8081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>154</v>
       </c>
@@ -7713,7 +8122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>220</v>
       </c>
@@ -7751,7 +8160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>169</v>
       </c>
@@ -7792,7 +8201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -7830,7 +8239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -7871,7 +8280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -7912,7 +8321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -7956,10 +8365,5 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Manuscript/Supp/Arabidopsis_summaryInfo.xlsx
+++ b/Manuscript/Supp/Arabidopsis_summaryInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5220" yWindow="640" windowWidth="19820" windowHeight="14160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="379">
   <si>
     <t xml:space="preserve">Tissue cluster </t>
   </si>
@@ -1284,15 +1284,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>it contains 48 samples</t>
-  </si>
-  <si>
-    <t>8 samples</t>
-  </si>
-  <si>
-    <t>42 samples</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -1351,6 +1342,39 @@
   </si>
   <si>
     <t>\cite{liu2015repair}</t>
+  </si>
+  <si>
+    <t>18 RNA-Seq</t>
+  </si>
+  <si>
+    <t>20 RNA-Seq</t>
+  </si>
+  <si>
+    <t>\cite{bai2012brassinosteroid}</t>
+  </si>
+  <si>
+    <t>12 samples(not sure about the ecotype of the other 6)</t>
+  </si>
+  <si>
+    <t>Map quality(&gt;=)</t>
+  </si>
+  <si>
+    <t>removed duplicated column</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>carpels</t>
+  </si>
+  <si>
+    <t>it contains 48 samples (Used One time point)</t>
+  </si>
+  <si>
+    <t>8 samples (mapping quality 23-46% removed)</t>
+  </si>
+  <si>
+    <t>42 samples (one time point)</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1545,6 +1569,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6909,10 +6935,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6920,7 +6946,7 @@
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>343</v>
       </c>
@@ -6936,13 +6962,16 @@
       <c r="E1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -6950,13 +6979,16 @@
       <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="9">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -6965,15 +6997,18 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -6981,13 +7016,19 @@
       <c r="D4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -6995,13 +7036,19 @@
       <c r="D5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -7009,13 +7056,16 @@
       <c r="D6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
         <v>140</v>
@@ -7023,13 +7073,16 @@
       <c r="D7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="9">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -7037,13 +7090,16 @@
       <c r="D8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="9">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -7051,13 +7107,16 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="9">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -7065,13 +7124,19 @@
       <c r="D10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -7079,13 +7144,16 @@
       <c r="D11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -7094,15 +7162,18 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -7111,15 +7182,18 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -7127,13 +7201,16 @@
       <c r="D14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="9">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -7141,13 +7218,16 @@
       <c r="D15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="9">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -7155,13 +7235,19 @@
       <c r="D16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C17" t="s">
         <v>151</v>
@@ -7169,13 +7255,19 @@
       <c r="D17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
         <v>155</v>
@@ -7183,13 +7275,16 @@
       <c r="D18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" s="10">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C19" t="s">
         <v>221</v>
@@ -7197,27 +7292,33 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" s="9">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>375</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" s="9">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
@@ -7225,13 +7326,16 @@
       <c r="D21">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" s="9">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C22" t="s">
         <v>88</v>
@@ -7239,13 +7343,16 @@
       <c r="D22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" s="9">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C23" t="s">
         <v>110</v>
@@ -7253,19 +7360,25 @@
       <c r="D23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" s="9">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C24" t="s">
         <v>113</v>
       </c>
       <c r="D24">
         <v>16</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.879</v>
       </c>
     </row>
   </sheetData>
@@ -7522,7 +7635,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
